--- a/Generation_Day.xlsx
+++ b/Generation_Day.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Daily Generation of Microgrid (Plant 5340310):</t>
   </si>
@@ -25,559 +25,535 @@
     <t>Generation (kWh)</t>
   </si>
   <si>
-    <t>2023-02-01T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T13:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T14:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T15:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T15:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T15:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T15:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T15:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-01T15:25:00</t>
+    <t>2023-02-14T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T11:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T12:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:45:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:50:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T13:55:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:00:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:05:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:10:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:15:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:20:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:25:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:30:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:35:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:40:00</t>
+  </si>
+  <si>
+    <t>2023-02-14T14:45:00</t>
   </si>
 </sst>
 </file>
@@ -923,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1493,7 +1469,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1501,7 +1477,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>73.994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1509,7 +1485,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1517,7 +1493,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>163.061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1525,7 +1501,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>208.233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1533,7 +1509,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>258.6</v>
+        <v>35.267</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1541,7 +1517,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>365.306</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1549,7 +1525,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>555.484</v>
+        <v>142.917</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1557,7 +1533,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>756.883</v>
+        <v>192.117</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1565,7 +1541,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1002.967</v>
+        <v>243.834</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1573,7 +1549,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1221</v>
+        <v>302.483</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1581,7 +1557,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>1385.922</v>
+        <v>362.25</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1589,7 +1565,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1578.017</v>
+        <v>429.717</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1597,7 +1573,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>1786.2</v>
+        <v>509.784</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1605,7 +1581,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>2021.3</v>
+        <v>594.0940000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1613,7 +1589,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2211.15</v>
+        <v>681.967</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1621,7 +1597,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>2368.539</v>
+        <v>764.067</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1629,7 +1605,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>2601.533</v>
+        <v>841.216</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1637,7 +1613,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>3131.734</v>
+        <v>916.8</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1645,7 +1621,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3317.2</v>
+        <v>1016.2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1653,7 +1629,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3513.834</v>
+        <v>1144.866</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1661,7 +1637,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>2959.067</v>
+        <v>1280.483</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1669,7 +1645,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3526.317</v>
+        <v>1411.384</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1677,7 +1653,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>4054.8</v>
+        <v>1562.45</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1685,7 +1661,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4380.384</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1693,7 +1669,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4695</v>
+        <v>2004.433</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1701,7 +1677,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>5437.267</v>
+        <v>2290.933</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1709,7 +1685,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>5547.367</v>
+        <v>2531.556</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1717,7 +1693,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>5209.517</v>
+        <v>2831.883</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1725,7 +1701,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>1927.983</v>
+        <v>3122.1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1733,7 +1709,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2507.067</v>
+        <v>3488.25</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1741,7 +1717,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>2923.716</v>
+        <v>3787.233</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1749,7 +1725,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>2374.367</v>
+        <v>3887.216</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1757,7 +1733,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2423.4</v>
+        <v>4039.85</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1765,7 +1741,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>4586.184</v>
+        <v>4395.167</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1773,7 +1749,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>2743.95</v>
+        <v>4783.2</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1781,7 +1757,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>2644.317</v>
+        <v>5156.8</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1789,7 +1765,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>2492.033</v>
+        <v>5465.133</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1797,7 +1773,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>2242.934</v>
+        <v>5552.75</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1805,7 +1781,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1978.7</v>
+        <v>5941.883</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1813,7 +1789,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1798.8</v>
+        <v>6069.872</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1821,7 +1797,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1871.967</v>
+        <v>6281.866</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1829,7 +1805,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>1615.6</v>
+        <v>6315.666</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1837,7 +1813,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1534.583</v>
+        <v>6412.967</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1845,7 +1821,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>1680.5</v>
+        <v>5877.233</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1853,7 +1829,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>2374</v>
+        <v>5385.483</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1861,7 +1837,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>2789.15</v>
+        <v>5585.65</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1869,7 +1845,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>3485.133</v>
+        <v>6426.333</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1877,7 +1853,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3751.567</v>
+        <v>6454.934</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1885,7 +1861,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>3939.417</v>
+        <v>6486.75</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1893,7 +1869,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>4452.967</v>
+        <v>6136.85</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1901,7 +1877,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>4024.484</v>
+        <v>5621.284</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1909,7 +1885,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>4478.761</v>
+        <v>5434.266</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1917,7 +1893,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>4927.4</v>
+        <v>5397.567</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1925,7 +1901,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>5673.35</v>
+        <v>5361.2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1933,7 +1909,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>6367.333</v>
+        <v>5341.667</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1941,7 +1917,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>6367.367</v>
+        <v>5309.433</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1949,7 +1925,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>5797.272</v>
+        <v>5344.616</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1957,7 +1933,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>6831.3</v>
+        <v>5291.706</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1965,7 +1941,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>7051.555</v>
+        <v>5288.267</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1973,7 +1949,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>6132.372</v>
+        <v>2607.2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1981,7 +1957,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>2598.85</v>
+        <v>937.1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1989,7 +1965,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>1068.6</v>
+        <v>871.533</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1997,7 +1973,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>896.866</v>
+        <v>873.15</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2005,7 +1981,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>765.417</v>
+        <v>845.25</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2013,7 +1989,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>699.2329999999999</v>
+        <v>749.9</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2021,7 +1997,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>597.817</v>
+        <v>710.5839999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2029,7 +2005,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>504.878</v>
+        <v>683.534</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2037,7 +2013,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>471.05</v>
+        <v>658.967</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2045,7 +2021,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>459.7</v>
+        <v>598.716</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2053,7 +2029,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>442.716</v>
+        <v>556.65</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2061,7 +2037,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>459.95</v>
+        <v>562.984</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2069,7 +2045,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>465.683</v>
+        <v>567.433</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2077,7 +2053,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>465.467</v>
+        <v>543.7</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2085,7 +2061,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>462.328</v>
+        <v>534.283</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2093,7 +2069,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>449.366</v>
+        <v>523.35</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2101,7 +2077,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>455.483</v>
+        <v>524.75</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2109,7 +2085,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>457.467</v>
+        <v>528.466</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2117,7 +2093,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>448.183</v>
+        <v>498.734</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2125,7 +2101,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>440.9</v>
+        <v>493.217</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2133,7 +2109,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>437.944</v>
+        <v>481.533</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2141,7 +2117,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>429.961</v>
+        <v>473.766</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2149,7 +2125,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>426.75</v>
+        <v>484.3</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2157,7 +2133,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>439.95</v>
+        <v>480.767</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2165,7 +2141,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>436.717</v>
+        <v>480.033</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2173,7 +2149,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>417.928</v>
+        <v>491.378</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2181,7 +2157,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>410.85</v>
+        <v>486.634</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2189,7 +2165,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>424.517</v>
+        <v>480.516</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2197,7 +2173,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>429.166</v>
+        <v>517.75</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2205,7 +2181,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>421.723</v>
+        <v>563.4829999999999</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2213,7 +2189,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>419.011</v>
+        <v>553.2670000000001</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2221,7 +2197,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>436.95</v>
+        <v>543.356</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2229,7 +2205,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>493.433</v>
+        <v>533.167</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2237,7 +2213,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>488.216</v>
+        <v>528.516</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2245,7 +2221,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>511.817</v>
+        <v>540.617</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2253,7 +2229,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>518.383</v>
+        <v>545.2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2261,7 +2237,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>497.184</v>
+        <v>549.5839999999999</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2269,7 +2245,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>488.384</v>
+        <v>541.617</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2277,7 +2253,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>490.967</v>
+        <v>547.5</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2285,7 +2261,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>491.945</v>
+        <v>549.633</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2293,7 +2269,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>479.267</v>
+        <v>535.7</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2301,7 +2277,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>479.633</v>
+        <v>533.45</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2309,7 +2285,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>471.566</v>
+        <v>525.7</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2317,7 +2293,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>484.006</v>
+        <v>500.583</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2325,7 +2301,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>481.122</v>
+        <v>459.05</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2333,7 +2309,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>472.383</v>
+        <v>457.4</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2341,7 +2317,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>468.517</v>
+        <v>463.017</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2349,7 +2325,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>481.572</v>
+        <v>458.783</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2357,71 +2333,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>484.517</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>180</v>
-      </c>
-      <c r="B180">
-        <v>492.183</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>181</v>
-      </c>
-      <c r="B181">
-        <v>490.316</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>182</v>
-      </c>
-      <c r="B182">
-        <v>491.117</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183">
-        <v>496.444</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184">
-        <v>493.8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185">
-        <v>431.2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186">
-        <v>425.783</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187">
-        <v>417.1</v>
+        <v>463.367</v>
       </c>
     </row>
   </sheetData>
